--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H2">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>347.562866489693</v>
+        <v>3326.467187532067</v>
       </c>
       <c r="R2">
-        <v>347.562866489693</v>
+        <v>29938.20468778861</v>
       </c>
       <c r="S2">
-        <v>0.008408909239369693</v>
+        <v>0.04383573606092393</v>
       </c>
       <c r="T2">
-        <v>0.008408909239369693</v>
+        <v>0.04383573606092393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H3">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>1767.743450953956</v>
+        <v>10957.50063102165</v>
       </c>
       <c r="R3">
-        <v>1767.743450953956</v>
+        <v>98617.50567919482</v>
       </c>
       <c r="S3">
-        <v>0.04276864898627714</v>
+        <v>0.1443964658209159</v>
       </c>
       <c r="T3">
-        <v>0.04276864898627714</v>
+        <v>0.1443964658209159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H4">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I4">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J4">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>1992.031801846229</v>
+        <v>13076.67908581401</v>
       </c>
       <c r="R4">
-        <v>1992.031801846229</v>
+        <v>117690.1117723261</v>
       </c>
       <c r="S4">
-        <v>0.04819506408392383</v>
+        <v>0.1723227137509893</v>
       </c>
       <c r="T4">
-        <v>0.04819506408392383</v>
+        <v>0.1723227137509893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H5">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I5">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J5">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>887.8766446186435</v>
+        <v>5508.19155570277</v>
       </c>
       <c r="R5">
-        <v>887.8766446186435</v>
+        <v>49573.72400132493</v>
       </c>
       <c r="S5">
-        <v>0.02148121919858686</v>
+        <v>0.07258620560389006</v>
       </c>
       <c r="T5">
-        <v>0.02148121919858686</v>
+        <v>0.07258620560389006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H6">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J6">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>1573.672532378831</v>
+        <v>2487.440640840142</v>
       </c>
       <c r="R6">
-        <v>1573.672532378831</v>
+        <v>22386.96576756128</v>
       </c>
       <c r="S6">
-        <v>0.03807331212022638</v>
+        <v>0.03277915736183188</v>
       </c>
       <c r="T6">
-        <v>0.03807331212022638</v>
+        <v>0.03277915736183188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H7">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J7">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>8003.873777296345</v>
+        <v>8193.717495183319</v>
       </c>
       <c r="R7">
-        <v>8003.873777296345</v>
+        <v>73743.45745664986</v>
       </c>
       <c r="S7">
-        <v>0.1936451060966605</v>
+        <v>0.1079757043216493</v>
       </c>
       <c r="T7">
-        <v>0.1936451060966605</v>
+        <v>0.1079757043216492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H8">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I8">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J8">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>9019.391978928459</v>
+        <v>9778.380838143927</v>
       </c>
       <c r="R8">
-        <v>9019.391978928459</v>
+        <v>88005.42754329534</v>
       </c>
       <c r="S8">
-        <v>0.218214475300852</v>
+        <v>0.1288581841813046</v>
       </c>
       <c r="T8">
-        <v>0.218214475300852</v>
+        <v>0.1288581841813045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H9">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I9">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J9">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>4020.070100953879</v>
+        <v>4118.874096982348</v>
       </c>
       <c r="R9">
-        <v>4020.070100953879</v>
+        <v>37069.86687284114</v>
       </c>
       <c r="S9">
-        <v>0.09726126659111155</v>
+        <v>0.05427796746657495</v>
       </c>
       <c r="T9">
-        <v>0.09726126659111155</v>
+        <v>0.05427796746657495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H10">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I10">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J10">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>4.430418588699935</v>
+        <v>7.077404975335554</v>
       </c>
       <c r="R10">
-        <v>4.430418588699935</v>
+        <v>63.69664477801999</v>
       </c>
       <c r="S10">
-        <v>0.0001071892063184458</v>
+        <v>9.326508845717824E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001071892063184458</v>
+        <v>9.326508845717825E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H11">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I11">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J11">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>22.53360240769918</v>
+        <v>23.31322244028222</v>
       </c>
       <c r="R11">
-        <v>22.53360240769918</v>
+        <v>209.81900196254</v>
       </c>
       <c r="S11">
-        <v>0.0005451762422036648</v>
+        <v>0.0003072185017943961</v>
       </c>
       <c r="T11">
-        <v>0.0005451762422036648</v>
+        <v>0.0003072185017943961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H12">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I12">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J12">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>25.39262842810821</v>
+        <v>27.82199504918889</v>
       </c>
       <c r="R12">
-        <v>25.39262842810821</v>
+        <v>250.3979554427</v>
       </c>
       <c r="S12">
-        <v>0.0006143472976775349</v>
+        <v>0.0003666344992777174</v>
       </c>
       <c r="T12">
-        <v>0.0006143472976775349</v>
+        <v>0.0003666344992777174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H13">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I13">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J13">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>11.3178523083323</v>
+        <v>11.71925052125778</v>
       </c>
       <c r="R13">
-        <v>11.3178523083323</v>
+        <v>105.47325469132</v>
       </c>
       <c r="S13">
-        <v>0.0002738232475942002</v>
+        <v>0.0001544347031611141</v>
       </c>
       <c r="T13">
-        <v>0.0002738232475942002</v>
+        <v>0.0001544347031611141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.5647040097259</v>
+        <v>121.0302313333333</v>
       </c>
       <c r="H14">
-        <v>95.5647040097259</v>
+        <v>363.090694</v>
       </c>
       <c r="I14">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="J14">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>950.2284210079463</v>
+        <v>1858.884038898474</v>
       </c>
       <c r="R14">
-        <v>950.2284210079463</v>
+        <v>16729.95635008627</v>
       </c>
       <c r="S14">
-        <v>0.0229897532772315</v>
+        <v>0.02449612321517368</v>
       </c>
       <c r="T14">
-        <v>0.0229897532772315</v>
+        <v>0.02449612321517368</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.5647040097259</v>
+        <v>121.0302313333333</v>
       </c>
       <c r="H15">
-        <v>95.5647040097259</v>
+        <v>363.090694</v>
       </c>
       <c r="I15">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="J15">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>4832.967586878067</v>
+        <v>6123.229805353293</v>
       </c>
       <c r="R15">
-        <v>4832.967586878067</v>
+        <v>55109.06824817963</v>
       </c>
       <c r="S15">
-        <v>0.1169284457955131</v>
+        <v>0.08069109672685205</v>
       </c>
       <c r="T15">
-        <v>0.1169284457955131</v>
+        <v>0.08069109672685204</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.5647040097259</v>
+        <v>121.0302313333333</v>
       </c>
       <c r="H16">
-        <v>95.5647040097259</v>
+        <v>363.090694</v>
       </c>
       <c r="I16">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="J16">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>5446.166481430173</v>
+        <v>7307.461238615576</v>
       </c>
       <c r="R16">
-        <v>5446.166481430173</v>
+        <v>65767.15114754018</v>
       </c>
       <c r="S16">
-        <v>0.1317641326513856</v>
+        <v>0.09629673887420441</v>
       </c>
       <c r="T16">
-        <v>0.1317641326513856</v>
+        <v>0.0962967388742044</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.5647040097259</v>
+        <v>121.0302313333333</v>
       </c>
       <c r="H17">
-        <v>95.5647040097259</v>
+        <v>363.090694</v>
       </c>
       <c r="I17">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="J17">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>2427.433144935311</v>
+        <v>3078.067147172943</v>
       </c>
       <c r="R17">
-        <v>2427.433144935311</v>
+        <v>27702.60432455648</v>
       </c>
       <c r="S17">
-        <v>0.05872913066506803</v>
+        <v>0.04056235382299964</v>
       </c>
       <c r="T17">
-        <v>0.05872913066506803</v>
+        <v>0.04056235382299964</v>
       </c>
     </row>
   </sheetData>
